--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H2">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I2">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J2">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>0.08424797725633335</v>
+        <v>0.67588678422</v>
       </c>
       <c r="R2">
-        <v>0.7582317953070001</v>
+        <v>6.082981057980001</v>
       </c>
       <c r="S2">
-        <v>2.560273039537094E-05</v>
+        <v>0.0001544850991061839</v>
       </c>
       <c r="T2">
-        <v>2.560273039537094E-05</v>
+        <v>0.0001544850991061839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H3">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I3">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J3">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>0.9005706395140001</v>
+        <v>11.31960374298</v>
       </c>
       <c r="R3">
-        <v>8.105135755626</v>
+        <v>101.87643368682</v>
       </c>
       <c r="S3">
-        <v>0.0002736809599037634</v>
+        <v>0.002587282584752823</v>
       </c>
       <c r="T3">
-        <v>0.0002736809599037634</v>
+        <v>0.002587282584752823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H4">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I4">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J4">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>0.4679122002426667</v>
+        <v>13.39402982679</v>
       </c>
       <c r="R4">
-        <v>4.211209802183999</v>
+        <v>120.54626844111</v>
       </c>
       <c r="S4">
-        <v>0.0001421972408318828</v>
+        <v>0.003061426963112985</v>
       </c>
       <c r="T4">
-        <v>0.0001421972408318828</v>
+        <v>0.003061426963112984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H5">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I5">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J5">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>0.9651407957473335</v>
+        <v>11.97036601242</v>
       </c>
       <c r="R5">
-        <v>8.686267161726001</v>
+        <v>107.73329411178</v>
       </c>
       <c r="S5">
-        <v>0.0002933036541863699</v>
+        <v>0.002736025060617361</v>
       </c>
       <c r="T5">
-        <v>0.0002933036541863698</v>
+        <v>0.002736025060617361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
         <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>110.6711913396146</v>
+        <v>70.63754825891799</v>
       </c>
       <c r="R6">
-        <v>996.0407220565312</v>
+        <v>635.737934330262</v>
       </c>
       <c r="S6">
-        <v>0.0336326730525706</v>
+        <v>0.01614537951942675</v>
       </c>
       <c r="T6">
-        <v>0.0336326730525706</v>
+        <v>0.01614537951942674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
         <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
         <v>1183.022178173429</v>
@@ -883,10 +883,10 @@
         <v>10647.19960356086</v>
       </c>
       <c r="S7">
-        <v>0.3595172117588358</v>
+        <v>0.2703992779661272</v>
       </c>
       <c r="T7">
-        <v>0.3595172117588358</v>
+        <v>0.2703992779661272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H8">
         <v>110.924753</v>
       </c>
       <c r="I8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>614.6663971009858</v>
+        <v>1399.822352441951</v>
       </c>
       <c r="R8">
-        <v>5531.997573908872</v>
+        <v>12598.40117197756</v>
       </c>
       <c r="S8">
-        <v>0.1867954407995892</v>
+        <v>0.3199525421962632</v>
       </c>
       <c r="T8">
-        <v>0.1867954407995892</v>
+        <v>0.3199525421962632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H9">
         <v>110.924753</v>
       </c>
       <c r="I9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>1267.843871798018</v>
+        <v>1251.033940329276</v>
       </c>
       <c r="R9">
-        <v>11410.59484618216</v>
+        <v>11259.30546296348</v>
       </c>
       <c r="S9">
-        <v>0.3852942929929832</v>
+        <v>0.2859444906590452</v>
       </c>
       <c r="T9">
-        <v>0.3852942929929832</v>
+        <v>0.2859444906590451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H10">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I10">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J10">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>3.901262714980778</v>
+        <v>7.837448452609999</v>
       </c>
       <c r="R10">
-        <v>35.111364434827</v>
+        <v>70.53703607348999</v>
       </c>
       <c r="S10">
-        <v>0.00118558309345827</v>
+        <v>0.001791378421962102</v>
       </c>
       <c r="T10">
-        <v>0.001185583093458271</v>
+        <v>0.001791378421962101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H11">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I11">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J11">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>41.70263515588733</v>
+        <v>131.2598691243233</v>
       </c>
       <c r="R11">
-        <v>375.323716402986</v>
+        <v>1181.33882211891</v>
       </c>
       <c r="S11">
-        <v>0.01267331702723387</v>
+        <v>0.03000161323428904</v>
       </c>
       <c r="T11">
-        <v>0.01267331702723387</v>
+        <v>0.03000161323428903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H12">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I12">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J12">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>21.66756378182489</v>
+        <v>155.314500580645</v>
       </c>
       <c r="R12">
-        <v>195.008074036424</v>
+        <v>1397.830505225805</v>
       </c>
       <c r="S12">
-        <v>0.006584713507633362</v>
+        <v>0.03549969695371119</v>
       </c>
       <c r="T12">
-        <v>0.006584713507633363</v>
+        <v>0.03549969695371118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H13">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I13">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J13">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>44.69267896723178</v>
+        <v>138.8059787105989</v>
       </c>
       <c r="R13">
-        <v>402.234110705086</v>
+        <v>1249.25380839539</v>
       </c>
       <c r="S13">
-        <v>0.0135819831823782</v>
+        <v>0.03172640134158609</v>
       </c>
       <c r="T13">
-        <v>0.0135819831823782</v>
+        <v>0.03172640134158608</v>
       </c>
     </row>
   </sheetData>
